--- a/roboshop编辑器_杨杰_checklist.xlsx
+++ b/roboshop编辑器_杨杰_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\seer\git_roboshop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF894156-E5E2-478C-9FD3-4998F51EE80E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F64AEA-520F-4423-AE43-7116ECB086D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>”打开“工具测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作站只有TF类型。且不可设置其自定义属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右边元素信息栏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
   </si>
   <si>
     <t>不同元素间，比如机器人，点和工作站层级明确，方便查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径”中LM到AP,LM到LM，AP到LM，AP到AP会混杂在一起；“地标点”中LM和AP混杂。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不能在地图界面直接删除元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双击地图元素或双击左边图元区的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无反应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击“直线”工具-&gt;选择则图界面一元素-&gt;拖动向另一元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,15 +374,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鼠标经过时若中间有点则会将中间点也连上；不能产生双向线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击“曲线”工具-&gt;选择则图界面一元素-&gt;拖动向另一元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原地图为曲线的打开后变为直线，用编辑器生成的曲线打开再保存后也是曲线，行为不一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,7 +394,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smap打开的文件只能另存为，xml打开的文件不能另存为。只能保存为xml，roboshop无法打开。更改文件名称再重新加载不能更改其布局名称。</t>
+    <t>工作站连接这一类型的虚线没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加另存为功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +436,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -585,55 +559,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,57 +617,6 @@
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -727,6 +650,57 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -745,7 +719,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,7 +727,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,15 +739,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,7 +755,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,7 +787,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,7 +815,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01259C49-D0B4-4039-BC29-5C35E9EC0D78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -887,14 +861,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -903,7 +882,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85379938-1645-4A7F-BE53-5A407BDDD8EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -943,20 +922,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -965,7 +949,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C360AD5-213D-4692-8EFF-0A70CA8EFB57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1005,20 +989,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -1027,7 +1016,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD877D4-5FF2-4481-9B62-F3397CCDAF2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1067,20 +1056,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -1089,7 +1083,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF60E16-EE67-431A-84EC-FC9A0A261982}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1129,20 +1123,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -1151,7 +1150,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4DBD8D-E49D-4C4F-9A06-8692BDA07691}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1191,20 +1190,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
@@ -1213,7 +1217,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F98691F-331F-43C9-BCA8-7AFF9F133B59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1253,20 +1257,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
@@ -1275,7 +1284,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AA9CE6-2C2B-48D4-AB8D-91A6B3F61589}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1315,20 +1324,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
@@ -1337,7 +1351,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF89B76B-80FC-4A8C-8106-E6BFDC3CDE85}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1377,20 +1391,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
@@ -1399,7 +1418,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFF8D9D-B58A-43F8-AA02-E000EDADA0CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1439,20 +1458,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
@@ -1461,7 +1485,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BDDDDE-28DC-4362-8873-4140ED3C0A6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,20 +1525,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
@@ -1523,7 +1552,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9AFF67-5837-4B9D-AB01-FE0FAF257526}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1563,20 +1592,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
@@ -1585,7 +1619,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFDCB01-CCED-4226-B0BD-75935F79148F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1625,20 +1659,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
@@ -1647,7 +1686,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F6B2BC-4A9B-40E2-94F0-C0F97340D41E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1687,20 +1726,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
@@ -1709,7 +1753,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4B1574-C89D-4C58-BD59-3370E2EEB9F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1749,20 +1793,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
@@ -1771,7 +1820,7 @@
                   <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F07FF4A-48FD-4291-A522-0353150A879A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1811,20 +1860,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
@@ -1833,7 +1887,7 @@
                   <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C66462-883B-45BF-92F4-128E9E2B8094}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1873,20 +1927,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
@@ -1895,7 +1954,7 @@
                   <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D519F0-FBFD-4D57-B073-46028954D586}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1935,20 +1994,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>541020</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="220980" cy="251460"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>373380</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
@@ -1957,7 +2021,7 @@
                   <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864BC19E-2B81-46FA-9DD4-5387AE6F9283}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1997,7 +2061,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2005,19 +2069,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9A4DFA8-8FEF-4E58-96F2-657B32EB7313}" name="表3" displayName="表3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C9A4DFA8-8FEF-4E58-96F2-657B32EB7313}" name="表3" displayName="表3" ref="A1:J2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="好">
   <autoFilter ref="A1:J2" xr:uid="{06D110C7-80E7-4FEC-9B40-91C4BD6DCBBD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{333C8C47-4F70-410B-8599-7C18B0208713}" name="测试软件" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5D1FDACB-058B-4664-967F-878C614D51C6}" name="软件版本" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{6D0F2384-F778-4177-B331-AFA95297014C}" name="测试内容" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A4C39047-FDE4-4CA5-93A0-A0061FD589CE}" name="测试名称" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3988BDCD-16F8-4F9C-BDDC-9399604215C1}" name="测试开始时间" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{B0E9FB6F-F5AA-4EB7-A2C3-7CF253F14373}" name="测试完成时间" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{C8C18105-AA38-4E7E-ACEA-496B337421D2}" name="测试人员" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{DBDD6DC1-EDAD-4179-BAD9-566F80D90AE9}" name="备注" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{61C6C5AA-0C10-4A03-83EB-93EB7AB46D40}" name="版本管理工具" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{673FFC36-969F-44DB-8F2A-342099243DC0}" name="网站" dataDxfId="6" dataCellStyle="超链接"/>
+    <tableColumn id="1" xr3:uid="{333C8C47-4F70-410B-8599-7C18B0208713}" name="测试软件" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5D1FDACB-058B-4664-967F-878C614D51C6}" name="软件版本" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6D0F2384-F778-4177-B331-AFA95297014C}" name="测试内容" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A4C39047-FDE4-4CA5-93A0-A0061FD589CE}" name="测试名称" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{3988BDCD-16F8-4F9C-BDDC-9399604215C1}" name="测试开始时间" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B0E9FB6F-F5AA-4EB7-A2C3-7CF253F14373}" name="测试完成时间" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C8C18105-AA38-4E7E-ACEA-496B337421D2}" name="测试人员" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{DBDD6DC1-EDAD-4179-BAD9-566F80D90AE9}" name="备注" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{61C6C5AA-0C10-4A03-83EB-93EB7AB46D40}" name="版本管理工具" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{673FFC36-969F-44DB-8F2A-342099243DC0}" name="网站" dataDxfId="0" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2288,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2315,13 +2379,13 @@
         <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>18</v>
@@ -2340,17 +2404,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2359,23 +2423,23 @@
     </row>
     <row r="3" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9">
         <v>2.1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2384,24 +2448,24 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="10">
         <v>3.1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2410,18 +2474,18 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="9">
         <v>3.2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2432,18 +2496,18 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="10">
         <v>3.3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2454,18 +2518,18 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="9">
         <v>3.4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2476,17 +2540,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>61</v>
+      <c r="A8" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>21</v>
@@ -2500,18 +2564,18 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="9">
         <v>4.2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2522,23 +2586,21 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10">
         <v>4.3</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2546,15 +2608,15 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="9">
         <v>4.4000000000000004</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>2</v>
@@ -2568,18 +2630,18 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10">
         <v>4.5</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -2590,25 +2652,23 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>23</v>
+      <c r="A13" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="10">
         <v>5.0999999999999996</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2616,18 +2676,18 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="9">
         <v>5.2</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2638,20 +2698,20 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
+      <c r="A15" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="10">
         <v>6.1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2662,23 +2722,21 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="9">
         <v>6.2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2686,23 +2744,21 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="9">
         <v>6.3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2717,18 +2773,16 @@
         <v>7.1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2736,25 +2790,23 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>27</v>
+      <c r="A19" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="10">
         <v>7.2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2762,24 +2814,24 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>28</v>
+      <c r="A20" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="11">
         <v>7.3</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -10069,22 +10121,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C15 C17:C21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"功能性测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C15 C17:C21">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"易用性测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"功能性测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"易用性测试"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10543,19 +10595,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -10563,15 +10615,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="18" t="s">
-        <v>56</v>
+      <c r="E2" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -10579,35 +10631,35 @@
     </row>
     <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
-        <v>58</v>
+      <c r="A4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +10690,7 @@
     <col min="10" max="10" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -10664,10 +10716,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10694,10 +10746,10 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
